--- a/presenze_giocatori_2024-11.xlsx
+++ b/presenze_giocatori_2024-11.xlsx
@@ -619,7 +619,11 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -666,7 +670,11 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -713,7 +721,11 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -760,7 +772,11 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -807,7 +823,11 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -854,7 +874,11 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -901,7 +925,11 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -948,7 +976,11 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -995,7 +1027,11 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1042,7 +1078,11 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1089,7 +1129,11 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1136,7 +1180,11 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1183,7 +1231,11 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1230,7 +1282,11 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1277,7 +1333,11 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1324,7 +1384,11 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1371,7 +1435,11 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1418,7 +1486,11 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1465,7 +1537,11 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1512,7 +1588,11 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1559,7 +1639,11 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1606,7 +1690,11 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1653,7 +1741,11 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1700,7 +1792,11 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1747,7 +1843,11 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1794,7 +1894,11 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1841,7 +1945,11 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1888,7 +1996,11 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1935,7 +2047,11 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1982,7 +2098,11 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2029,7 +2149,11 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2076,7 +2200,11 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2123,7 +2251,11 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>

--- a/presenze_giocatori_2024-11.xlsx
+++ b/presenze_giocatori_2024-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,9 +625,17 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -676,9 +684,17 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -727,9 +743,17 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -778,9 +802,17 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -829,9 +861,17 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -880,9 +920,17 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -931,9 +979,17 @@
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -982,9 +1038,17 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1033,9 +1097,17 @@
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1084,9 +1156,17 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1135,9 +1215,17 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1186,9 +1274,17 @@
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1237,9 +1333,17 @@
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1288,9 +1392,17 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1339,9 +1451,17 @@
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1390,9 +1510,17 @@
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1441,9 +1569,17 @@
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1492,9 +1628,17 @@
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1543,9 +1687,17 @@
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1594,9 +1746,17 @@
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1645,9 +1805,17 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1696,9 +1864,17 @@
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1747,9 +1923,17 @@
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1798,9 +1982,17 @@
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1849,9 +2041,17 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1900,9 +2100,17 @@
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1951,9 +2159,17 @@
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2002,9 +2218,17 @@
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2053,9 +2277,17 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2104,9 +2336,17 @@
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2155,9 +2395,17 @@
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2206,9 +2454,17 @@
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2257,9 +2513,17 @@
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2283,6 +2547,57 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SERAFINI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/presenze_giocatori_2024-11.xlsx
+++ b/presenze_giocatori_2024-11.xlsx
@@ -631,11 +631,7 @@
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -690,11 +686,7 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -749,11 +741,7 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -808,11 +796,7 @@
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -867,11 +851,7 @@
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -926,11 +906,7 @@
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -985,11 +961,7 @@
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1044,11 +1016,7 @@
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1103,11 +1071,7 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1162,11 +1126,7 @@
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1221,11 +1181,7 @@
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1280,11 +1236,7 @@
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1339,11 +1291,7 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1398,11 +1346,7 @@
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1457,11 +1401,7 @@
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1516,11 +1456,7 @@
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1575,11 +1511,7 @@
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1634,11 +1566,7 @@
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1693,11 +1621,7 @@
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1752,11 +1676,7 @@
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1811,11 +1731,7 @@
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1870,11 +1786,7 @@
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1929,11 +1841,7 @@
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1988,11 +1896,7 @@
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -2047,11 +1951,7 @@
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -2106,11 +2006,7 @@
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2165,11 +2061,7 @@
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2224,11 +2116,7 @@
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2283,11 +2171,7 @@
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2342,11 +2226,7 @@
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2401,11 +2281,7 @@
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2460,11 +2336,7 @@
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2519,11 +2391,7 @@
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2570,11 +2438,7 @@
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>

--- a/presenze_giocatori_2024-11.xlsx
+++ b/presenze_giocatori_2024-11.xlsx
@@ -630,7 +630,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -685,7 +689,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -740,7 +748,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -795,7 +807,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -850,7 +866,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -905,7 +925,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -960,7 +984,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1015,7 +1043,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1070,7 +1102,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1125,7 +1161,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1180,7 +1220,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1235,7 +1279,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1290,7 +1338,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1345,7 +1397,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1400,7 +1456,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1455,7 +1515,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1510,7 +1574,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1565,7 +1633,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1620,7 +1692,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1675,7 +1751,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1730,7 +1810,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1785,7 +1869,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1840,7 +1928,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1895,7 +1987,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1950,7 +2046,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2005,7 +2105,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2060,7 +2164,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2115,7 +2223,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2170,7 +2282,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2225,7 +2341,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2280,7 +2400,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2335,7 +2459,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2390,7 +2518,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2437,7 +2569,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>

--- a/presenze_giocatori_2024-11.xlsx
+++ b/presenze_giocatori_2024-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,9 +638,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -697,9 +705,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -756,9 +772,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -815,9 +839,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -874,9 +906,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
@@ -933,9 +973,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -992,9 +1040,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -1051,9 +1107,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -1110,9 +1174,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1169,9 +1241,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1228,9 +1308,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1287,9 +1375,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1346,9 +1442,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1405,9 +1509,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1464,9 +1576,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1523,9 +1643,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1582,9 +1710,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1641,9 +1777,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1700,9 +1844,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
@@ -1759,9 +1911,17 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
@@ -1818,9 +1978,17 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -1877,9 +2045,17 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -1936,9 +2112,17 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
@@ -1995,9 +2179,17 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -2054,9 +2246,17 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
@@ -2113,9 +2313,17 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -2172,9 +2380,17 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2231,9 +2447,17 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
@@ -2290,9 +2514,17 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
@@ -2349,9 +2581,17 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
@@ -2408,9 +2648,17 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
@@ -2467,9 +2715,17 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
@@ -2526,9 +2782,17 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
@@ -2577,9 +2841,17 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
@@ -2598,6 +2870,57 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Valerio</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CONTI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/presenze_giocatori_2024-11.xlsx
+++ b/presenze_giocatori_2024-11.xlsx
@@ -649,7 +649,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -716,7 +720,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -783,7 +791,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -850,7 +862,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -917,7 +933,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -984,7 +1004,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1051,7 +1075,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1118,7 +1146,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1185,7 +1217,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1252,7 +1288,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1319,7 +1359,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1386,7 +1430,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1453,7 +1501,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1520,7 +1572,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1587,7 +1643,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1654,7 +1714,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1721,7 +1785,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1788,7 +1856,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1855,7 +1927,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1922,7 +1998,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1989,7 +2069,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -2056,7 +2140,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2123,7 +2211,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2190,7 +2282,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2257,7 +2353,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2324,7 +2424,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2391,7 +2495,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2458,7 +2566,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2525,7 +2637,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2592,7 +2708,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2659,7 +2779,11 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2726,7 +2850,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2747,12 +2875,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Damiano</t>
+          <t>Valerio</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SILVESTRI</t>
+          <t>CONTI</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2793,7 +2921,11 @@
           <t>P</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
